--- a/alumnos/Testing_tareas_RosanaBB/Caso de prueba-RosanaBB.xlsx
+++ b/alumnos/Testing_tareas_RosanaBB/Caso de prueba-RosanaBB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Rosana\Informatorio_3\Testing\reporte-de-errores-informatorio\alumnos\Testing_tareas_RosanaBB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE3CFC7-2837-4BFA-B63B-46220293CBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97547462-1981-41DC-B9B7-9EE8752CF962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EDFB9D11-D765-4B7F-8612-E13673E2EB09}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
   <si>
     <t>Caso de Prueba- Baez Rosana</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Datos de entrada</t>
-  </si>
-  <si>
-    <t>Paso</t>
   </si>
   <si>
     <t xml:space="preserve">ID Caso de Prueba: </t>
@@ -290,10 +287,16 @@
     <t>Registración exitosa.</t>
   </si>
   <si>
-    <t>Deja registrarse exitosamente y no informa los errores.</t>
-  </si>
-  <si>
     <t>Si se inicia sesión e ingresa otra contraseña igual permite el acceso.</t>
+  </si>
+  <si>
+    <t>Error  en la página Demo.guru</t>
+  </si>
+  <si>
+    <t>Deja registrarse exitosamente ingresando cualquier cosas  y no informa los errores.</t>
+  </si>
+  <si>
+    <t>Pasó</t>
   </si>
 </sst>
 </file>
@@ -622,13 +625,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>302514</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>189214</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1006,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE7C3D5-65DA-4DFD-990C-AF25C38E0B5D}">
-  <dimension ref="B1:F142"/>
+  <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="M106" sqref="M106"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,39 +1039,39 @@
     </row>
     <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>10</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -1087,7 +1090,7 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -1103,7 +1106,7 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -1119,7 +1122,7 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -1135,7 +1138,7 @@
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -1143,7 +1146,7 @@
       <c r="B19" s="12"/>
       <c r="C19" s="8"/>
       <c r="D19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="4"/>
     </row>
@@ -1153,7 +1156,7 @@
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -1161,7 +1164,7 @@
       <c r="B21" s="12"/>
       <c r="C21" s="8"/>
       <c r="D21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" s="4"/>
     </row>
@@ -1171,7 +1174,7 @@
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -1179,7 +1182,7 @@
       <c r="B23" s="12"/>
       <c r="C23" s="8"/>
       <c r="D23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" s="4"/>
     </row>
@@ -1189,7 +1192,7 @@
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -1197,17 +1200,17 @@
       <c r="B25" s="12"/>
       <c r="C25" s="8"/>
       <c r="D25" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -1215,7 +1218,7 @@
       <c r="B27" s="25"/>
       <c r="C27" s="26"/>
       <c r="D27" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="28"/>
     </row>
@@ -1223,7 +1226,7 @@
       <c r="B28" s="25"/>
       <c r="C28" s="26"/>
       <c r="D28" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" s="28"/>
     </row>
@@ -1231,7 +1234,7 @@
       <c r="B29" s="25"/>
       <c r="C29" s="26"/>
       <c r="D29" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" s="28"/>
     </row>
@@ -1239,7 +1242,7 @@
       <c r="B30" s="25"/>
       <c r="C30" s="26"/>
       <c r="D30" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="28"/>
     </row>
@@ -1247,7 +1250,7 @@
       <c r="B31" s="25"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" s="28"/>
     </row>
@@ -1255,7 +1258,7 @@
       <c r="B32" s="25"/>
       <c r="C32" s="26"/>
       <c r="D32" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E32" s="30"/>
     </row>
@@ -1263,7 +1266,7 @@
       <c r="B33" s="25"/>
       <c r="C33" s="26"/>
       <c r="D33" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" s="28"/>
     </row>
@@ -1271,7 +1274,7 @@
       <c r="B34" s="25"/>
       <c r="C34" s="26"/>
       <c r="D34" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E34" s="28"/>
     </row>
@@ -1279,7 +1282,7 @@
       <c r="B35" s="25"/>
       <c r="C35" s="26"/>
       <c r="D35" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E35" s="28"/>
     </row>
@@ -1287,7 +1290,7 @@
       <c r="B36" s="25"/>
       <c r="C36" s="26"/>
       <c r="D36" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E36" s="28"/>
     </row>
@@ -1295,7 +1298,7 @@
       <c r="B37" s="25"/>
       <c r="C37" s="26"/>
       <c r="D37" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E37" s="28"/>
     </row>
@@ -1303,7 +1306,7 @@
       <c r="B38" s="25"/>
       <c r="C38" s="26"/>
       <c r="D38" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E38" s="28"/>
     </row>
@@ -1311,7 +1314,7 @@
       <c r="B39" s="25"/>
       <c r="C39" s="26"/>
       <c r="D39" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E39" s="28"/>
     </row>
@@ -1319,7 +1322,7 @@
       <c r="B40" s="25"/>
       <c r="C40" s="26"/>
       <c r="D40" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E40" s="28"/>
     </row>
@@ -1327,7 +1330,7 @@
       <c r="B41" s="25"/>
       <c r="C41" s="26"/>
       <c r="D41" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E41" s="28"/>
     </row>
@@ -1335,7 +1338,7 @@
       <c r="B42" s="12"/>
       <c r="C42" s="8"/>
       <c r="D42" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E42" s="4"/>
     </row>
@@ -1343,38 +1346,38 @@
       <c r="B43" s="17"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E43" s="19"/>
     </row>
     <row r="44" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="20"/>
     </row>
     <row r="45" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D45" s="16"/>
       <c r="E45" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="22"/>
@@ -1679,206 +1682,209 @@
       <c r="D96" s="33"/>
       <c r="E96" s="33"/>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="32"/>
       <c r="C97" s="33"/>
       <c r="D97" s="33"/>
       <c r="E97" s="33"/>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="32"/>
       <c r="C98" s="33"/>
       <c r="D98" s="33"/>
       <c r="E98" s="33"/>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="32"/>
       <c r="C99" s="33"/>
       <c r="D99" s="33"/>
       <c r="E99" s="33"/>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="32"/>
       <c r="C100" s="33"/>
       <c r="D100" s="33"/>
       <c r="E100" s="33"/>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="32"/>
       <c r="C101" s="33"/>
       <c r="D101" s="33"/>
       <c r="E101" s="33"/>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="32"/>
       <c r="C102" s="33"/>
       <c r="D102" s="33"/>
       <c r="E102" s="33"/>
     </row>
-    <row r="104" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="105" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="5"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="6"/>
-    </row>
-    <row r="106" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B106" s="11" t="s">
+    <row r="103" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B103" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B104" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="33"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="32"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
+    </row>
+    <row r="107" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="108" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="5"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="6"/>
+    </row>
+    <row r="109" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B109" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="7"/>
-      <c r="D106" s="1" t="s">
+      <c r="C109" s="7"/>
+      <c r="D109" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B110" s="12"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B111" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="7"/>
+      <c r="D111" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="12"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="4"/>
-    </row>
-    <row r="108" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B108" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C108" s="7"/>
-      <c r="D108" s="1" t="s">
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B112" s="12"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="4"/>
+    </row>
+    <row r="113" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B113" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" s="7"/>
+      <c r="D113" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B114" s="12"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B115" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="12"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="4"/>
-    </row>
-    <row r="110" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B110" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C110" s="7"/>
-      <c r="D110" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="12"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="4"/>
-    </row>
-    <row r="112" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B112" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C112" s="7"/>
-      <c r="D112" s="1" t="s">
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B116" s="12"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B117" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="7"/>
+      <c r="D117" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="12"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="4"/>
-    </row>
-    <row r="114" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B114" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C114" s="7"/>
-      <c r="D114" s="1" t="s">
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B118" s="12"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E114" s="2"/>
-    </row>
-    <row r="115" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="12"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E115" s="4"/>
-    </row>
-    <row r="116" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B116" s="11" t="s">
+      <c r="E118" s="4"/>
+    </row>
+    <row r="119" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B119" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C116" s="7"/>
-      <c r="D116" s="1" t="s">
+      <c r="C119" s="7"/>
+      <c r="D119" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E119" s="2"/>
+    </row>
+    <row r="120" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B120" s="12"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E116" s="2"/>
-    </row>
-    <row r="117" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="12"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="3" t="s">
+      <c r="E120" s="4"/>
+    </row>
+    <row r="121" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B121" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="7"/>
+      <c r="D121" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E117" s="4"/>
-    </row>
-    <row r="118" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B118" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="7"/>
-      <c r="D118" s="1" t="s">
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B122" s="12"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E118" s="2"/>
-    </row>
-    <row r="119" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B119" s="12"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="3" t="s">
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B123" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E119" s="4"/>
-    </row>
-    <row r="120" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B120" s="11" t="s">
+      <c r="C123" s="7"/>
+      <c r="D123" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C120" s="7"/>
-      <c r="D120" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E120" s="2"/>
-    </row>
-    <row r="121" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B121" s="25"/>
-      <c r="C121" s="26"/>
-      <c r="D121" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E121" s="28"/>
-    </row>
-    <row r="122" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B122" s="25"/>
-      <c r="C122" s="26"/>
-      <c r="D122" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E122" s="28"/>
-    </row>
-    <row r="123" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B123" s="25"/>
-      <c r="C123" s="26"/>
-      <c r="D123" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E123" s="28"/>
+      <c r="E123" s="2"/>
     </row>
     <row r="124" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B124" s="25"/>
       <c r="C124" s="26"/>
-      <c r="D124" s="27" t="s">
-        <v>60</v>
+      <c r="D124" s="29" t="s">
+        <v>39</v>
       </c>
       <c r="E124" s="28"/>
     </row>
@@ -1886,23 +1892,23 @@
       <c r="B125" s="25"/>
       <c r="C125" s="26"/>
       <c r="D125" s="27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E125" s="28"/>
     </row>
     <row r="126" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B126" s="25"/>
       <c r="C126" s="26"/>
-      <c r="D126" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E126" s="30"/>
+      <c r="D126" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E126" s="28"/>
     </row>
     <row r="127" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B127" s="25"/>
       <c r="C127" s="26"/>
       <c r="D127" s="27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E127" s="28"/>
     </row>
@@ -1910,23 +1916,23 @@
       <c r="B128" s="25"/>
       <c r="C128" s="26"/>
       <c r="D128" s="27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E128" s="28"/>
     </row>
     <row r="129" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B129" s="25"/>
       <c r="C129" s="26"/>
-      <c r="D129" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E129" s="28"/>
+      <c r="D129" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E129" s="30"/>
     </row>
     <row r="130" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B130" s="25"/>
       <c r="C130" s="26"/>
       <c r="D130" s="27" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E130" s="28"/>
     </row>
@@ -1934,15 +1940,15 @@
       <c r="B131" s="25"/>
       <c r="C131" s="26"/>
       <c r="D131" s="27" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E131" s="28"/>
     </row>
     <row r="132" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B132" s="25"/>
       <c r="C132" s="26"/>
-      <c r="D132" s="29" t="s">
-        <v>46</v>
+      <c r="D132" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="E132" s="28"/>
     </row>
@@ -1950,7 +1956,7 @@
       <c r="B133" s="25"/>
       <c r="C133" s="26"/>
       <c r="D133" s="27" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E133" s="28"/>
     </row>
@@ -1958,79 +1964,103 @@
       <c r="B134" s="25"/>
       <c r="C134" s="26"/>
       <c r="D134" s="27" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E134" s="28"/>
     </row>
     <row r="135" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B135" s="25"/>
       <c r="C135" s="26"/>
-      <c r="D135" s="27" t="s">
+      <c r="D135" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E135" s="28"/>
+    </row>
+    <row r="136" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B136" s="25"/>
+      <c r="C136" s="26"/>
+      <c r="D136" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E136" s="28"/>
+    </row>
+    <row r="137" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B137" s="25"/>
+      <c r="C137" s="26"/>
+      <c r="D137" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="28"/>
+    </row>
+    <row r="138" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B138" s="25"/>
+      <c r="C138" s="26"/>
+      <c r="D138" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E138" s="28"/>
+    </row>
+    <row r="139" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B139" s="12"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E135" s="28"/>
-    </row>
-    <row r="136" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="12"/>
-      <c r="C136" s="8"/>
-      <c r="D136" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E136" s="4"/>
-    </row>
-    <row r="137" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="17"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="18" t="s">
+      <c r="E139" s="4"/>
+    </row>
+    <row r="140" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="17"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E140" s="19"/>
+    </row>
+    <row r="141" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E137" s="19"/>
-    </row>
-    <row r="138" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="23" t="s">
+      <c r="C141" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D141" s="16"/>
+      <c r="E141" s="20"/>
+    </row>
+    <row r="142" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C138" s="15" t="s">
+      <c r="C142" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D138" s="16"/>
-      <c r="E138" s="20"/>
-    </row>
-    <row r="139" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="34" t="s">
+      <c r="D142" s="2"/>
+      <c r="E142" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B143" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C139" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D139" s="2"/>
-      <c r="E139" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B140" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C140" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D140" s="35"/>
-      <c r="E140" s="36"/>
-    </row>
-    <row r="141" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="31"/>
-      <c r="C141" s="37" t="s">
+      <c r="C143" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D141" s="37"/>
-      <c r="E141" s="4"/>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B142" s="32"/>
-      <c r="C142" s="33"/>
-      <c r="D142" s="33"/>
-      <c r="E142" s="33"/>
+      <c r="D143" s="35"/>
+      <c r="E143" s="36"/>
+    </row>
+    <row r="144" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="31"/>
+      <c r="C144" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D144" s="37"/>
+      <c r="E144" s="4"/>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145" s="32"/>
+      <c r="C145" s="33"/>
+      <c r="D145" s="33"/>
+      <c r="E145" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
